--- a/templates/employee_template.xlsx
+++ b/templates/employee_template.xlsx
@@ -5,21 +5,23 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Подразделения\АУП\Стажерская программа\Отпуск Р7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\chernousov-am\vp on pt\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <workbookProtection workbookPassword="CC71" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="357" yWindow="10" windowWidth="20957" windowHeight="9723"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="График отпусков" sheetId="1" r:id="rId1"/>
+    <sheet name="rules" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Сотрудник:</t>
   </si>
@@ -82,13 +84,34 @@
   </si>
   <si>
     <t>Рассчетный столбец</t>
+  </si>
+  <si>
+    <t>куда</t>
+  </si>
+  <si>
+    <t>что</t>
+  </si>
+  <si>
+    <t>ФИО работника</t>
+  </si>
+  <si>
+    <t>Подразделение 1</t>
+  </si>
+  <si>
+    <t>Подразделение 2</t>
+  </si>
+  <si>
+    <t>Подразделение 3</t>
+  </si>
+  <si>
+    <t>Подразделение 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,29 +121,47 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="24"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -407,135 +448,136 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -816,23 +858,23 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.2" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="35.6328125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="16.6328125" style="1" customWidth="1"/>
-    <col min="8" max="10" width="30.6328125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.453125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="35.5703125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="16.5703125" style="1" customWidth="1"/>
+    <col min="8" max="10" width="30.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -856,7 +898,7 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
@@ -881,7 +923,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
@@ -897,7 +939,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
@@ -913,7 +955,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>8</v>
       </c>
@@ -929,11 +971,11 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>9</v>
       </c>
@@ -971,7 +1013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>1</v>
       </c>
@@ -1003,7 +1045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="45.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>1</v>
       </c>
@@ -1030,7 +1072,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="45.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>2</v>
       </c>
@@ -1057,7 +1099,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="45.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>3</v>
       </c>
@@ -1084,7 +1126,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="45.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>4</v>
       </c>
@@ -1111,7 +1153,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="45.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>5</v>
       </c>
@@ -1138,7 +1180,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="45.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>6</v>
       </c>
@@ -1165,7 +1207,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="45.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>7</v>
       </c>
@@ -1192,7 +1234,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="45.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>8</v>
       </c>
@@ -1219,7 +1261,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="45.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>9</v>
       </c>
@@ -1246,7 +1288,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="45.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>10</v>
       </c>
@@ -1273,7 +1315,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="45.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>11</v>
       </c>
@@ -1300,7 +1342,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="45.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>12</v>
       </c>
@@ -1327,7 +1369,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="45.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>13</v>
       </c>
@@ -1354,7 +1396,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="45.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>14</v>
       </c>
@@ -1378,7 +1420,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="45.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>15</v>
       </c>
@@ -1450,4 +1492,99 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="e">
+        <f>'График отпусков'!B9:B23</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="e">
+        <f>'График отпусков'!D9:D23</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="e">
+        <f>'График отпусков'!C9:C23</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>'График отпусков'!C1</f>
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>'График отпусков'!C2</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>'График отпусков'!C3</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>'График отпусков'!C4</f>
+        <v>0</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>'График отпусков'!C5</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>